--- a/SGameProject/assets/xlsx/preload.xlsx
+++ b/SGameProject/assets/xlsx/preload.xlsx
@@ -1,88 +1,419 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="preload" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制文件路径</t>
   </si>
   <si>
     <t>prefabpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre/bear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre/cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre/chicken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre/fox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre/frog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre/stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre/stage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/cat2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,23 +421,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -396,111 +1012,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/preload.xlsx
+++ b/SGameProject/assets/xlsx/preload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="preload" sheetId="1" r:id="rId1"/>
@@ -22,66 +22,67 @@
     <t>预制文件路径</t>
   </si>
   <si>
+    <t>pre/bear</t>
+  </si>
+  <si>
+    <t>pre/cat</t>
+  </si>
+  <si>
+    <t>pre/chicken</t>
+  </si>
+  <si>
+    <t>pre/fox</t>
+  </si>
+  <si>
+    <t>pre/frog</t>
+  </si>
+  <si>
+    <t>pre/stone</t>
+  </si>
+  <si>
+    <t>pre/stage1</t>
+  </si>
+  <si>
+    <t>pre/cat2</t>
+  </si>
+  <si>
+    <t>pre/char20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/char25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/char27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/char29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/char35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/char38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/stone2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/stage2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/char39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>prefabpath</t>
-  </si>
-  <si>
-    <t>pre/bear</t>
-  </si>
-  <si>
-    <t>pre/cat</t>
-  </si>
-  <si>
-    <t>pre/chicken</t>
-  </si>
-  <si>
-    <t>pre/fox</t>
-  </si>
-  <si>
-    <t>pre/frog</t>
-  </si>
-  <si>
-    <t>pre/stone</t>
-  </si>
-  <si>
-    <t>pre/stage1</t>
-  </si>
-  <si>
-    <t>pre/cat2</t>
-  </si>
-  <si>
-    <t>pre/char20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre/char25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre/char27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre/char29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre/char35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre/char38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre/stone2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre/stage2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre/char39</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -101,12 +102,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -439,7 +442,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,8 +462,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -468,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -476,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -492,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -500,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -508,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -516,7 +519,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -524,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -532,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -540,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -548,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -556,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -564,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -572,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -580,7 +583,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -588,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/SGameProject/assets/xlsx/preload.xlsx
+++ b/SGameProject/assets/xlsx/preload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -83,6 +83,22 @@
   </si>
   <si>
     <t>prefabpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/bear2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/chicken2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/fox2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/frog2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,6 +618,38 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SGameProject/assets/xlsx/preload.xlsx
+++ b/SGameProject/assets/xlsx/preload.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8325"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="preload" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>预制文件路径</t>
   </si>
   <si>
+    <t>prefabpath</t>
+  </si>
+  <si>
     <t>pre/bear</t>
   </si>
   <si>
@@ -47,66 +50,64 @@
   </si>
   <si>
     <t>pre/char20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/char25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/char27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/char29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/char35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/char38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/stone2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/stage2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/char39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/bear2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/chicken2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/fox2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pre/frog2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/hengskill</t>
+  </si>
+  <si>
+    <t>pre/shuskill</t>
+  </si>
+  <si>
+    <t>pre/cat2buff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,27 +119,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,25 +476,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -454,19 +1068,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,151 +1089,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -626,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -634,7 +1249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -642,7 +1257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -650,9 +1265,33 @@
         <v>23</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/preload.xlsx
+++ b/SGameProject/assets/xlsx/preload.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="preload" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>id</t>
   </si>
@@ -98,14 +98,22 @@
   </si>
   <si>
     <t>pre/ef_destroy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/downrole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,21 +129,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,25 +475,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -451,19 +1066,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -479,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -487,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -495,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -503,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -511,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -519,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -527,7 +1143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -535,103 +1151,103 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -639,7 +1255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -647,7 +1263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -655,7 +1271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -663,7 +1279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -671,7 +1287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -679,9 +1295,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/preload.xlsx
+++ b/SGameProject/assets/xlsx/preload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,26 @@
   </si>
   <si>
     <t>pre/skill/roundboombuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/role/cat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/role/bear4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/role/chicken4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/role/fox4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/role/frog4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -791,6 +811,46 @@
         <v>35</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SGameProject/assets/xlsx/preload.xlsx
+++ b/SGameProject/assets/xlsx/preload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="preload" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>pre/role/frog4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象池个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poolnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/skill/lockboom1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/skill/lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/skill/lock2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/skill/lockboom2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,324 +555,488 @@
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SGameProject/assets/xlsx/preload.xlsx
+++ b/SGameProject/assets/xlsx/preload.xlsx
@@ -189,15 +189,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pre/skill/lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pre/skill/lock2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pre/skill/lockboom2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre/skill/lock1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +547,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,7 +1000,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>0</v>
